--- a/KM5c_data/ODP_Site_1125.xlsx
+++ b/KM5c_data/ODP_Site_1125.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>14.05183559</v>
+        <v>14.54</v>
       </c>
       <c r="Q2">
-        <v>5.59316441</v>
+        <v>5.109476860894096</v>
       </c>
       <c r="R2">
-        <v>4.852751489999999</v>
+        <v>4.369063940894096</v>
       </c>
       <c r="S2">
         <v>5.190454545454545</v>
